--- a/Diff Probe BOM V2.xlsx
+++ b/Diff Probe BOM V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulv\Documents\Hobby\Differential Probe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A1E2173-A20E-46DB-B655-EB90900B2879}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4928C54-9D34-48EC-B219-88429108238B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4515" yWindow="1155" windowWidth="21600" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1965" yWindow="1155" windowWidth="25005" windowHeight="13980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="217">
   <si>
     <t>Manufacturer Part Number</t>
   </si>
@@ -58,15 +58,9 @@
     <t>C7, C12</t>
   </si>
   <si>
-    <t>0,02000</t>
-  </si>
-  <si>
     <t>€  0,20</t>
   </si>
   <si>
-    <t>CAP CER 22PF 50V C0G/NP0 0201</t>
-  </si>
-  <si>
     <t>CC0805FRNPO9BN331</t>
   </si>
   <si>
@@ -319,9 +313,6 @@
     <t>311-4174-1-ND</t>
   </si>
   <si>
-    <t>tuning</t>
-  </si>
-  <si>
     <t>CAP CER 270PF 50V NPO 0805</t>
   </si>
   <si>
@@ -650,16 +641,47 @@
   </si>
   <si>
     <t>IC OPAMP GP 1 CIRCUIT SOT23-5</t>
+  </si>
+  <si>
+    <t>1uF 0805</t>
+  </si>
+  <si>
+    <t>100nF 0603</t>
+  </si>
+  <si>
+    <t>1uF 0603</t>
+  </si>
+  <si>
+    <t>C35</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>Do not place</t>
+  </si>
+  <si>
+    <t>C32, 34</t>
+  </si>
+  <si>
+    <t>CAP CER 22PF 50V C0G/NP0 0603</t>
+  </si>
+  <si>
+    <t>extra for tuning</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="#,##0.00000_ ;\-#,##0.00000\ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -668,6 +690,11 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -690,7 +717,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -706,6 +733,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1020,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1080,930 +1111,987 @@
       <c r="E2" s="2">
         <v>2</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2">
-        <v>2</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="H3" t="s">
         <v>19</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
         <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="2">
-        <v>2</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="H5" t="s">
         <v>29</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="2">
-        <v>2</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="H7" t="s">
         <v>41</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
         <v>44</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="2">
-        <v>2</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="H8" t="s">
         <v>48</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
         <v>51</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>52</v>
-      </c>
-      <c r="C9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" t="s">
-        <v>54</v>
       </c>
       <c r="E9" s="2">
         <v>3</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
         <v>57</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>58</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D10" t="s">
+      <c r="G10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="2">
-        <v>2</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="H10" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
         <v>64</v>
       </c>
-      <c r="B11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" t="s">
         <v>65</v>
-      </c>
-      <c r="D11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
         <v>68</v>
       </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" t="s">
         <v>69</v>
-      </c>
-      <c r="D12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
         <v>72</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>73</v>
-      </c>
-      <c r="C13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" t="s">
-        <v>75</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s">
         <v>76</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" t="s">
         <v>79</v>
-      </c>
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" t="s">
-        <v>81</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
         <v>84</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>85</v>
-      </c>
-      <c r="C15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" t="s">
-        <v>87</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" t="s">
         <v>88</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H15" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" t="s">
         <v>91</v>
-      </c>
-      <c r="B16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" t="s">
-        <v>93</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" t="s">
         <v>94</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H16" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" t="s">
         <v>113</v>
       </c>
-      <c r="B17" t="s">
+      <c r="E17" s="2">
+        <v>2</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C17" t="s">
+      <c r="G17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" t="s">
         <v>115</v>
-      </c>
-      <c r="D17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E17" s="2">
-        <v>2</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E18" s="2">
         <v>8</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" t="s">
         <v>125</v>
-      </c>
-      <c r="B19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" t="s">
-        <v>128</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" t="s">
         <v>132</v>
-      </c>
-      <c r="B20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C20" t="s">
-        <v>134</v>
-      </c>
-      <c r="D20" t="s">
-        <v>135</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" t="s">
         <v>141</v>
-      </c>
-      <c r="B21" t="s">
-        <v>142</v>
-      </c>
-      <c r="C21" t="s">
-        <v>143</v>
-      </c>
-      <c r="D21" t="s">
-        <v>144</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H21" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D22" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="G23" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D23" t="s">
+      <c r="H23" t="s">
         <v>154</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="H23" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" t="s">
         <v>158</v>
-      </c>
-      <c r="B24" t="s">
-        <v>159</v>
-      </c>
-      <c r="C24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D24" t="s">
-        <v>161</v>
       </c>
       <c r="E24" s="2">
         <v>4</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H24" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E25" s="2">
         <v>4</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H25" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" t="s">
         <v>170</v>
       </c>
-      <c r="B26" t="s">
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C26" t="s">
+      <c r="G26" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D26" t="s">
+      <c r="H26" t="s">
         <v>173</v>
-      </c>
-      <c r="E26" s="2">
-        <v>2</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H26" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" t="s">
         <v>177</v>
-      </c>
-      <c r="B27" t="s">
-        <v>178</v>
-      </c>
-      <c r="C27" t="s">
-        <v>179</v>
-      </c>
-      <c r="D27" t="s">
-        <v>180</v>
       </c>
       <c r="E27" s="2">
         <v>6</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" t="s">
+        <v>182</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H28" t="s">
         <v>183</v>
-      </c>
-      <c r="B28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" t="s">
-        <v>184</v>
-      </c>
-      <c r="D28" t="s">
-        <v>185</v>
-      </c>
-      <c r="E28" s="2">
-        <v>2</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H28" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>185</v>
+      </c>
+      <c r="D29" t="s">
+        <v>186</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H29" t="s">
         <v>187</v>
-      </c>
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" t="s">
-        <v>188</v>
-      </c>
-      <c r="D29" t="s">
-        <v>189</v>
-      </c>
-      <c r="E29" s="2">
-        <v>2</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H29" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B30" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C30" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D30" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H30" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
+        <v>192</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>193</v>
+      </c>
+      <c r="D31" t="s">
+        <v>194</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H31" t="s">
         <v>195</v>
-      </c>
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" t="s">
-        <v>196</v>
-      </c>
-      <c r="D31" t="s">
-        <v>197</v>
-      </c>
-      <c r="E31" s="2">
-        <v>2</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H31" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
+        <v>196</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>197</v>
+      </c>
+      <c r="D32" t="s">
+        <v>198</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H32" t="s">
         <v>199</v>
-      </c>
-      <c r="B32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" t="s">
-        <v>200</v>
-      </c>
-      <c r="D32" t="s">
-        <v>201</v>
-      </c>
-      <c r="E32" s="2">
-        <v>2</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H32" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
+        <v>200</v>
+      </c>
+      <c r="B33" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" t="s">
+        <v>202</v>
+      </c>
+      <c r="D33" t="s">
         <v>203</v>
-      </c>
-      <c r="B33" t="s">
-        <v>204</v>
-      </c>
-      <c r="C33" t="s">
-        <v>205</v>
-      </c>
-      <c r="D33" t="s">
-        <v>206</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
       </c>
       <c r="F33" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H33" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="B34" s="8"/>
+      <c r="D34" t="s">
+        <v>211</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="H34" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="B35" s="8"/>
+      <c r="D35" t="s">
+        <v>210</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="H35" t="s">
         <v>207</v>
       </c>
-      <c r="G33" s="3" t="s">
+    </row>
+    <row r="36" spans="1:8">
+      <c r="B36" s="8"/>
+      <c r="D36" t="s">
+        <v>214</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="H36" t="s">
         <v>208</v>
       </c>
-      <c r="H33" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" t="s">
+    </row>
+    <row r="37" spans="1:8">
+      <c r="B37" s="8"/>
+      <c r="D37" t="s">
+        <v>212</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="H37" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E40" s="2">
+        <v>2</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" t="s">
         <v>97</v>
       </c>
-      <c r="B35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" t="s">
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
         <v>98</v>
       </c>
-      <c r="D35" t="s">
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
         <v>99</v>
       </c>
-      <c r="E35" s="2">
-        <v>2</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="D41" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E41" s="2">
+        <v>2</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" t="s">
+      <c r="G41" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B36" t="s">
+      <c r="H41" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E42" s="2">
+        <v>2</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" t="s">
         <v>9</v>
       </c>
-      <c r="C36" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" t="s">
-        <v>99</v>
-      </c>
-      <c r="E36" s="2">
-        <v>2</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H36" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" t="s">
-        <v>106</v>
-      </c>
-      <c r="B37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" s="2">
-        <v>2</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" s="3" t="s">
+      <c r="C43" t="s">
         <v>108</v>
       </c>
-      <c r="H37" t="s">
+      <c r="D43" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E43" s="2">
+        <v>2</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H43" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" t="s">
-        <v>111</v>
-      </c>
-      <c r="D38" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" s="2">
-        <v>2</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H38" t="s">
-        <v>112</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Diff Probe BOM V2.xlsx
+++ b/Diff Probe BOM V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulv\Documents\Hobby\Differential Probe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4928C54-9D34-48EC-B219-88429108238B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C3C528-F88D-4453-BE8F-54A1553252E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="1155" windowWidth="25005" windowHeight="13980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="215">
   <si>
     <t>Manufacturer Part Number</t>
   </si>
@@ -112,21 +112,12 @@
     <t>CAP CER 0.2PF 50V C0G/NP0 0402</t>
   </si>
   <si>
-    <t>GJM1555C1HR50WB01D</t>
-  </si>
-  <si>
-    <t>490-11250-1-ND</t>
-  </si>
-  <si>
     <t>C19</t>
   </si>
   <si>
     <t>€  0,54</t>
   </si>
   <si>
-    <t>CAP CER 0.5PF 50V C0G/NP0 0402</t>
-  </si>
-  <si>
     <t>TAJB106K025RNJ</t>
   </si>
   <si>
@@ -307,15 +298,6 @@
     <t>IC OPAMP GP 1 CIRCUIT TSOT23-6</t>
   </si>
   <si>
-    <t>CC0805FRNPO9BN271</t>
-  </si>
-  <si>
-    <t>311-4174-1-ND</t>
-  </si>
-  <si>
-    <t>CAP CER 270PF 50V NPO 0805</t>
-  </si>
-  <si>
     <t>GRM0335C1H270GA01D</t>
   </si>
   <si>
@@ -331,18 +313,6 @@
     <t>CAP CER 27PF 50V C0G/NP0 0201</t>
   </si>
   <si>
-    <t>CC0805FRNPO9BN181</t>
-  </si>
-  <si>
-    <t>311-4169-1-ND</t>
-  </si>
-  <si>
-    <t>€  1,12</t>
-  </si>
-  <si>
-    <t>CAP CER 180PF 50V NPO 0805</t>
-  </si>
-  <si>
     <t>GRM0335C1H180GA01D</t>
   </si>
   <si>
@@ -671,6 +641,30 @@
   </si>
   <si>
     <t>extra for tuning</t>
+  </si>
+  <si>
+    <t>CAP CER 0.4PF 50V C0G/NP0 0402</t>
+  </si>
+  <si>
+    <t>GJM1555C1HR40WB01D</t>
+  </si>
+  <si>
+    <t>490-11249-1-ND</t>
+  </si>
+  <si>
+    <t>0,27001</t>
+  </si>
+  <si>
+    <t>CAP CER 0.3PF 50V C0G/NP0 0402</t>
+  </si>
+  <si>
+    <t>490-11248-1-ND</t>
+  </si>
+  <si>
+    <t>GJM1555C1HR30WB01D</t>
+  </si>
+  <si>
+    <t>I strongly suggest you order a few extras for all the 0402 parts, they have the nasty habbit to dissapear without a trace.</t>
   </si>
 </sst>
 </file>
@@ -679,9 +673,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="169" formatCode="#,##0.00000_ ;\-#,##0.00000\ "/>
+    <numFmt numFmtId="165" formatCode="#,##0.00000_ ;\-#,##0.00000\ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -695,6 +689,10 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -733,7 +731,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1051,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1118,7 +1116,7 @@
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1201,782 +1199,782 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>208</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>209</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
         <v>42</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" t="s">
-        <v>45</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
         <v>49</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
       </c>
       <c r="E9" s="2">
         <v>3</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>28</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
         <v>55</v>
-      </c>
-      <c r="B10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" t="s">
-        <v>58</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
         <v>70</v>
-      </c>
-      <c r="B13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" t="s">
-        <v>73</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" t="s">
         <v>82</v>
-      </c>
-      <c r="B15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" t="s">
-        <v>85</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H17" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E18" s="2">
         <v>8</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H18" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="H19" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D20" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="H20" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B21" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H21" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="H22" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D23" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="H23" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B24" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C24" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D24" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E24" s="2">
         <v>4</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H24" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D25" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E25" s="2">
         <v>4</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H25" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B26" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C26" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D26" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E26" s="2">
         <v>2</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H26" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B27" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C27" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D27" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E27" s="2">
         <v>6</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D28" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E28" s="2">
         <v>2</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="H28" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D29" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E29" s="2">
         <v>2</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="H29" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B30" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C30" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D30" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H30" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D31" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E31" s="2">
         <v>2</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="H31" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D32" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E32" s="2">
         <v>2</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="H32" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B33" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C33" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D33" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="H33" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="B34" s="8"/>
       <c r="D34" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
       </c>
       <c r="F34" s="6"/>
       <c r="H34" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="B35" s="8"/>
       <c r="D35" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
       </c>
       <c r="F35" s="6"/>
       <c r="H35" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="B36" s="8"/>
       <c r="D36" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E36" s="2">
         <v>2</v>
       </c>
       <c r="F36" s="6"/>
       <c r="H36" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="B37" s="8"/>
       <c r="D37" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="E37" s="2">
         <v>1</v>
       </c>
       <c r="F37" s="6"/>
       <c r="H37" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1987,109 +1985,89 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E40" s="2">
         <v>2</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="H40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E41" s="2">
         <v>2</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>103</v>
+        <v>213</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
+      </c>
+      <c r="D42" t="s">
+        <v>206</v>
       </c>
       <c r="E42" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="H42" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" t="s">
-        <v>107</v>
-      </c>
-      <c r="B43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="E43" s="2">
-        <v>2</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H43" t="s">
-        <v>109</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Diff Probe BOM V2.xlsx
+++ b/Diff Probe BOM V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulv\Documents\Hobby\Differential Probe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C3C528-F88D-4453-BE8F-54A1553252E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B8C77C-AC68-45E6-9228-3D74B9B2F460}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="216">
   <si>
     <t>Manufacturer Part Number</t>
   </si>
@@ -310,18 +310,12 @@
     <t>€  0,36</t>
   </si>
   <si>
-    <t>CAP CER 27PF 50V C0G/NP0 0201</t>
-  </si>
-  <si>
     <t>GRM0335C1H180GA01D</t>
   </si>
   <si>
     <t>490-11310-1-ND</t>
   </si>
   <si>
-    <t>CAP CER 18PF 50V C0G/NP0 0201</t>
-  </si>
-  <si>
     <t>JR200</t>
   </si>
   <si>
@@ -640,9 +634,6 @@
     <t>CAP CER 22PF 50V C0G/NP0 0603</t>
   </si>
   <si>
-    <t>extra for tuning</t>
-  </si>
-  <si>
     <t>CAP CER 0.4PF 50V C0G/NP0 0402</t>
   </si>
   <si>
@@ -665,6 +656,18 @@
   </si>
   <si>
     <t>I strongly suggest you order a few extras for all the 0402 parts, they have the nasty habbit to dissapear without a trace.</t>
+  </si>
+  <si>
+    <t>extra for tuning C19</t>
+  </si>
+  <si>
+    <t>extra for tuning C7, C12</t>
+  </si>
+  <si>
+    <t>CAP CER 27PF 50V C0G/NP0 0603</t>
+  </si>
+  <si>
+    <t>CAP CER 18PF 50V C0G/NP0 0603</t>
   </si>
 </sst>
 </file>
@@ -1049,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1060,7 +1063,7 @@
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="2" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="14" style="3" customWidth="1"/>
@@ -1116,7 +1119,7 @@
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1199,13 +1202,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>
@@ -1214,13 +1217,13 @@
         <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1485,496 +1488,496 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" t="s">
         <v>100</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>101</v>
-      </c>
-      <c r="C17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" t="s">
-        <v>103</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>90</v>
       </c>
       <c r="H17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E18" s="2">
         <v>8</v>
       </c>
       <c r="F18" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" t="s">
         <v>109</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H18" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" t="s">
         <v>112</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>113</v>
-      </c>
-      <c r="C19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" t="s">
-        <v>115</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
       </c>
       <c r="F19" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19" t="s">
         <v>116</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H19" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" t="s">
         <v>119</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>120</v>
-      </c>
-      <c r="C20" t="s">
-        <v>121</v>
-      </c>
-      <c r="D20" t="s">
-        <v>122</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" t="s">
         <v>123</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H20" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" t="s">
         <v>128</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" t="s">
         <v>129</v>
-      </c>
-      <c r="C21" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" t="s">
-        <v>131</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
       </c>
       <c r="F21" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H21" t="s">
         <v>132</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="H21" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B23" t="s">
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
       </c>
       <c r="F23" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H23" t="s">
         <v>142</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H23" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" t="s">
         <v>145</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D24" t="s">
         <v>146</v>
-      </c>
-      <c r="C24" t="s">
-        <v>147</v>
-      </c>
-      <c r="D24" t="s">
-        <v>148</v>
       </c>
       <c r="E24" s="2">
         <v>4</v>
       </c>
       <c r="F24" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H24" t="s">
         <v>149</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H24" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D25" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E25" s="2">
         <v>4</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>95</v>
       </c>
       <c r="H25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" t="s">
         <v>157</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
         <v>158</v>
-      </c>
-      <c r="C26" t="s">
-        <v>159</v>
-      </c>
-      <c r="D26" t="s">
-        <v>160</v>
       </c>
       <c r="E26" s="2">
         <v>2</v>
       </c>
       <c r="F26" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H26" t="s">
         <v>161</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="H26" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" t="s">
         <v>164</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
         <v>165</v>
-      </c>
-      <c r="C27" t="s">
-        <v>166</v>
-      </c>
-      <c r="D27" t="s">
-        <v>167</v>
       </c>
       <c r="E27" s="2">
         <v>6</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>77</v>
       </c>
       <c r="H27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E28" s="2">
         <v>2</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E29" s="2">
         <v>2</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" t="s">
+        <v>177</v>
+      </c>
+      <c r="D30" t="s">
         <v>178</v>
-      </c>
-      <c r="B30" t="s">
-        <v>165</v>
-      </c>
-      <c r="C30" t="s">
-        <v>179</v>
-      </c>
-      <c r="D30" t="s">
-        <v>180</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>95</v>
       </c>
       <c r="H30" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D31" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E31" s="2">
         <v>2</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E32" s="2">
         <v>2</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H32" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33" t="s">
         <v>190</v>
       </c>
-      <c r="B33" t="s">
+      <c r="D33" t="s">
         <v>191</v>
-      </c>
-      <c r="C33" t="s">
-        <v>192</v>
-      </c>
-      <c r="D33" t="s">
-        <v>193</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
       </c>
       <c r="F33" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H33" t="s">
         <v>194</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="H33" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="B34" s="8"/>
       <c r="D34" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
       </c>
       <c r="F34" s="6"/>
       <c r="H34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="B35" s="8"/>
       <c r="D35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
       </c>
       <c r="F35" s="6"/>
       <c r="H35" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="B36" s="8"/>
       <c r="D36" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E36" s="2">
         <v>2</v>
       </c>
       <c r="F36" s="6"/>
       <c r="H36" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="B37" s="8"/>
       <c r="D37" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E37" s="2">
         <v>1</v>
       </c>
       <c r="F37" s="6"/>
       <c r="H37" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1994,7 +1997,7 @@
         <v>93</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E40" s="2">
         <v>2</v>
@@ -2006,21 +2009,21 @@
         <v>95</v>
       </c>
       <c r="H40" t="s">
-        <v>96</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E41" s="2">
         <v>2</v>
@@ -2032,38 +2035,67 @@
         <v>95</v>
       </c>
       <c r="H41" t="s">
-        <v>99</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
       </c>
       <c r="C42" t="s">
+        <v>209</v>
+      </c>
+      <c r="D42" t="s">
         <v>212</v>
-      </c>
-      <c r="D42" t="s">
-        <v>206</v>
       </c>
       <c r="E42" s="2">
         <v>1</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H42" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" t="s">
+        <v>212</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
         <v>211</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/Diff Probe BOM V2.xlsx
+++ b/Diff Probe BOM V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulv\Documents\Hobby\Differential Probe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B8C77C-AC68-45E6-9228-3D74B9B2F460}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43ACF142-7616-49B1-A0EA-9D9937837249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="14400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="216">
   <si>
     <t>Manufacturer Part Number</t>
   </si>
@@ -46,15 +46,9 @@
     <t>Description</t>
   </si>
   <si>
-    <t>GRM0335C1H220GA01D</t>
-  </si>
-  <si>
     <t>Murata Electronics</t>
   </si>
   <si>
-    <t>490-9662-1-ND</t>
-  </si>
-  <si>
     <t>C7, C12</t>
   </si>
   <si>
@@ -298,24 +292,12 @@
     <t>IC OPAMP GP 1 CIRCUIT TSOT23-6</t>
   </si>
   <si>
-    <t>GRM0335C1H270GA01D</t>
-  </si>
-  <si>
-    <t>490-11317-1-ND</t>
-  </si>
-  <si>
     <t>0,09000</t>
   </si>
   <si>
     <t>€  0,36</t>
   </si>
   <si>
-    <t>GRM0335C1H180GA01D</t>
-  </si>
-  <si>
-    <t>490-11310-1-ND</t>
-  </si>
-  <si>
     <t>JR200</t>
   </si>
   <si>
@@ -668,6 +650,24 @@
   </si>
   <si>
     <t>CAP CER 18PF 50V C0G/NP0 0603</t>
+  </si>
+  <si>
+    <t>GRM1885C1H220GA01D</t>
+  </si>
+  <si>
+    <t>490-11451-1-ND</t>
+  </si>
+  <si>
+    <t>GRM1885C1H270GA01D</t>
+  </si>
+  <si>
+    <t>GRM1885C1H180GA01D</t>
+  </si>
+  <si>
+    <t>490-11449-1-ND</t>
+  </si>
+  <si>
+    <t>490-11455-1-ND</t>
   </si>
 </sst>
 </file>
@@ -1052,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1097,17 +1097,17 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="A2" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
       </c>
       <c r="E2" s="2">
         <v>2</v>
@@ -1116,868 +1116,868 @@
         <v>0.01</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
         <v>17</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
         <v>27</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
         <v>36</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
         <v>43</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
         <v>46</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" t="s">
-        <v>49</v>
       </c>
       <c r="E9" s="2">
         <v>3</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
         <v>52</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>53</v>
-      </c>
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" t="s">
-        <v>55</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" t="s">
         <v>56</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
         <v>59</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" t="s">
-        <v>61</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
         <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" t="s">
-        <v>65</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
         <v>67</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>68</v>
-      </c>
-      <c r="C13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" t="s">
-        <v>70</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" t="s">
         <v>71</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" t="s">
         <v>74</v>
-      </c>
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" t="s">
-        <v>76</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
         <v>79</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>80</v>
-      </c>
-      <c r="C15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" t="s">
-        <v>82</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" t="s">
         <v>83</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
         <v>86</v>
-      </c>
-      <c r="B16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" t="s">
-        <v>88</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" t="s">
         <v>89</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E18" s="2">
         <v>8</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H18" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H19" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H20" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="H21" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D22" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H22" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D23" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H23" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B24" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C24" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D24" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E24" s="2">
         <v>4</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H24" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D25" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E25" s="2">
         <v>4</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H25" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B26" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C26" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D26" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E26" s="2">
         <v>2</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H26" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C27" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D27" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E27" s="2">
         <v>6</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H27" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D28" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E28" s="2">
         <v>2</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H28" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D29" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E29" s="2">
         <v>2</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H29" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B30" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C30" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D30" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H30" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D31" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E31" s="2">
         <v>2</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H31" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D32" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E32" s="2">
         <v>2</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H32" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B33" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C33" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D33" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H33" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="B34" s="8"/>
       <c r="D34" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
       </c>
       <c r="F34" s="6"/>
       <c r="H34" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="B35" s="8"/>
       <c r="D35" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
       </c>
       <c r="F35" s="6"/>
       <c r="H35" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="B36" s="8"/>
       <c r="D36" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E36" s="2">
         <v>2</v>
       </c>
       <c r="F36" s="6"/>
       <c r="H36" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="B37" s="8"/>
       <c r="D37" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E37" s="2">
         <v>1</v>
       </c>
       <c r="F37" s="6"/>
       <c r="H37" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1987,107 +1987,107 @@
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" t="s">
-        <v>92</v>
+      <c r="A40" s="8" t="s">
+        <v>212</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" t="s">
-        <v>93</v>
+        <v>8</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>215</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E40" s="2">
         <v>2</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H40" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" t="s">
-        <v>96</v>
-      </c>
-      <c r="B41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" t="s">
-        <v>97</v>
-      </c>
       <c r="D41" s="8" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E41" s="2">
         <v>2</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H41" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D42" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E42" s="2">
         <v>1</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H42" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D43" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E43" s="2">
         <v>1</v>
       </c>
       <c r="F43" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" t="s">
         <v>27</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H43" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2095,7 +2095,12 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>211</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="8" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/Diff Probe BOM V2.xlsx
+++ b/Diff Probe BOM V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulv\Documents\Hobby\Differential Probe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwver\Documents\Hobby\Differential Probe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43ACF142-7616-49B1-A0EA-9D9937837249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF41DAF8-D865-40C3-A6CF-CFD32882C648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="14400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4335" yWindow="570" windowWidth="24180" windowHeight="15165" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="217">
   <si>
     <t>Manufacturer Part Number</t>
   </si>
@@ -668,6 +668,9 @@
   </si>
   <si>
     <t>490-11455-1-ND</t>
+  </si>
+  <si>
+    <t>4.2uF in a 0402 package seems to be gone, you can use the largest 0402 size capacitor. I found this one on DigiKey: 298D225X0010K2T</t>
   </si>
 </sst>
 </file>
@@ -678,7 +681,7 @@
     <numFmt numFmtId="164" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="#,##0.00000_ ;\-#,##0.00000\ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -697,13 +700,25 @@
       <sz val="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -718,29 +733,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -756,7 +773,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1052,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1068,6 +1085,7 @@
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="14" style="3" customWidth="1"/>
     <col min="8" max="8" width="36.5703125" customWidth="1"/>
+    <col min="9" max="9" width="120.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1486,7 +1504,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>92</v>
       </c>
@@ -1512,7 +1530,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>98</v>
       </c>
@@ -1538,7 +1556,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -1564,7 +1582,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -1590,7 +1608,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>120</v>
       </c>
@@ -1616,7 +1634,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>127</v>
       </c>
@@ -1642,14 +1660,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
+    <row r="23" spans="1:9">
+      <c r="A23" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="9" t="s">
         <v>132</v>
       </c>
       <c r="D23" t="s">
@@ -1667,8 +1685,11 @@
       <c r="H23" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -1694,7 +1715,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>144</v>
       </c>
@@ -1720,7 +1741,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>149</v>
       </c>
@@ -1746,7 +1767,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>156</v>
       </c>
@@ -1772,7 +1793,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>162</v>
       </c>
@@ -1798,7 +1819,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>166</v>
       </c>
@@ -1824,7 +1845,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>170</v>
       </c>
@@ -1850,7 +1871,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>174</v>
       </c>
@@ -1876,7 +1897,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>178</v>
       </c>
@@ -2098,9 +2119,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:2">
       <c r="A49" s="8" t="s">
         <v>212</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
